--- a/results/weighted_metaphor_confront.xlsx
+++ b/results/weighted_metaphor_confront.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrac\Documents\Uni\Embeddings\metaphor_experiment\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{42AD03C0-D387-437F-8E5B-3F5ADB1D447F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2060D7-8597-46FC-88BD-CB69A4AD2D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="250" yWindow="1140" windowWidth="18950" windowHeight="8920"/>
+    <workbookView xWindow="250" yWindow="380" windowWidth="18950" windowHeight="8920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weighted_metaphor_confront" sheetId="1" r:id="rId1"/>
@@ -25,54 +25,6 @@
     <t>metaphor</t>
   </si>
   <si>
-    <t>mean_similarity_Nein</t>
-  </si>
-  <si>
-    <t>mean_similarity_Ja</t>
-  </si>
-  <si>
-    <t>mean_baseline_Nein</t>
-  </si>
-  <si>
-    <t>mean_baseline_Ja</t>
-  </si>
-  <si>
-    <t>mean_test_stat_Nein</t>
-  </si>
-  <si>
-    <t>mean_test_stat_Ja</t>
-  </si>
-  <si>
-    <t>mean_p_value_Nein</t>
-  </si>
-  <si>
-    <t>mean_p_value_Ja</t>
-  </si>
-  <si>
-    <t>amount_pos_sign_Nein</t>
-  </si>
-  <si>
-    <t>amount_pos_sign_Ja</t>
-  </si>
-  <si>
-    <t>amount_pos_insign_Nein</t>
-  </si>
-  <si>
-    <t>amount_pos_insign_Ja</t>
-  </si>
-  <si>
-    <t>amount_neg_sign_Nein</t>
-  </si>
-  <si>
-    <t>amount_neg_sign_Ja</t>
-  </si>
-  <si>
-    <t>amount_neg_insign_Nein</t>
-  </si>
-  <si>
-    <t>amount_neg_insign_Ja</t>
-  </si>
-  <si>
     <t>4 failure is death</t>
   </si>
   <si>
@@ -101,12 +53,60 @@
   </si>
   <si>
     <t>9 good is up</t>
+  </si>
+  <si>
+    <t>mean_similarity_weighted</t>
+  </si>
+  <si>
+    <t>mean_baseline_weighted</t>
+  </si>
+  <si>
+    <t>mean_test_stat_weighted</t>
+  </si>
+  <si>
+    <t>mean_p_value_weighted</t>
+  </si>
+  <si>
+    <t>amount_pos_sign_weighted</t>
+  </si>
+  <si>
+    <t>amount_pos_insign_weighted</t>
+  </si>
+  <si>
+    <t>amount_neg_sign_weighted</t>
+  </si>
+  <si>
+    <t>amount_neg_insign_weighted</t>
+  </si>
+  <si>
+    <t>mean_similarity_unweighted</t>
+  </si>
+  <si>
+    <t>mean_baseline_unweighted</t>
+  </si>
+  <si>
+    <t>mean_test_stat_unweighted</t>
+  </si>
+  <si>
+    <t>mean_p_value_unweighted</t>
+  </si>
+  <si>
+    <t>amount_pos_sign_unweighted</t>
+  </si>
+  <si>
+    <t>amount_pos_insign_unweighted</t>
+  </si>
+  <si>
+    <t>amount_neg_sign_unweighted</t>
+  </si>
+  <si>
+    <t>amount_neg_insign_unweighted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,7 +699,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="48">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -725,46 +725,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -789,46 +749,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -853,696 +773,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -1661,6 +891,316 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1686,29 +1226,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:Q11" totalsRowShown="0">
-  <autoFilter ref="A1:Q11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:Q11" totalsRowShown="0">
+  <autoFilter ref="A1:Q11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="metaphor"/>
-    <tableColumn id="2" name="mean_similarity_Nein" dataDxfId="92"/>
-    <tableColumn id="3" name="mean_similarity_Ja" dataDxfId="91"/>
-    <tableColumn id="4" name="mean_baseline_Nein" dataDxfId="90"/>
-    <tableColumn id="5" name="mean_baseline_Ja" dataDxfId="89"/>
-    <tableColumn id="6" name="mean_test_stat_Nein" dataDxfId="88"/>
-    <tableColumn id="7" name="mean_test_stat_Ja" dataDxfId="87"/>
-    <tableColumn id="8" name="mean_p_value_Nein" dataDxfId="13"/>
-    <tableColumn id="9" name="mean_p_value_Ja" dataDxfId="12"/>
-    <tableColumn id="10" name="amount_pos_sign_Nein" dataDxfId="86"/>
-    <tableColumn id="11" name="amount_pos_sign_Ja" dataDxfId="85"/>
-    <tableColumn id="12" name="amount_pos_insign_Nein" dataDxfId="84"/>
-    <tableColumn id="13" name="amount_pos_insign_Ja" dataDxfId="83"/>
-    <tableColumn id="14" name="amount_neg_sign_Nein" dataDxfId="7"/>
-    <tableColumn id="15" name="amount_neg_sign_Ja" dataDxfId="6"/>
-    <tableColumn id="16" name="amount_neg_insign_Nein" dataDxfId="1"/>
-    <tableColumn id="17" name="amount_neg_insign_Ja" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="metaphor"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mean_similarity_unweighted" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="mean_similarity_weighted" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="mean_baseline_unweighted" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mean_baseline_weighted" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="mean_test_stat_unweighted" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="mean_test_stat_weighted" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="mean_p_value_unweighted" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="mean_p_value_weighted" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="amount_pos_sign_unweighted" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="amount_pos_sign_weighted" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="amount_pos_insign_unweighted" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="amount_pos_insign_weighted" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="amount_neg_sign_unweighted" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="amount_neg_sign_weighted" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="amount_neg_insign_unweighted" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="amount_neg_insign_weighted" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2010,11 +1550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2043,57 +1583,57 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>0.238090023450334</v>
@@ -2146,7 +1686,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>0.20739921223345301</v>
@@ -2199,7 +1739,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>0.26381031968443702</v>
@@ -2252,7 +1792,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>0.23243857144913299</v>
@@ -2305,7 +1845,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>0.26084448106334102</v>
@@ -2358,7 +1898,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>0.23362962945590199</v>
@@ -2411,7 +1951,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3">
         <v>0.204165162189369</v>
@@ -2464,7 +2004,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>0.20568855855926199</v>
@@ -2517,7 +2057,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3">
         <v>0.187630162481184</v>
@@ -2570,7 +2110,7 @@
     </row>
     <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>0.21030579397635399</v>
@@ -2623,68 +2163,68 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="top10" dxfId="58" priority="36" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="57" priority="35" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="47" priority="36" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="46" priority="35" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="top10" dxfId="56" priority="33" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="55" priority="34" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="45" priority="33" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="44" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="top10" dxfId="54" priority="27" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="53" priority="28" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="27" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="28" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="top10" dxfId="52" priority="25" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="51" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="25" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="top10" dxfId="50" priority="23" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="49" priority="24" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="24" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="top10" dxfId="48" priority="21" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="47" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="top10" dxfId="46" priority="19" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="45" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="19" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="top10" dxfId="44" priority="17" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="43" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="17" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L11">
-    <cfRule type="top10" dxfId="42" priority="15" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="41" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="15" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="16" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M11">
-    <cfRule type="top10" dxfId="40" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="39" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="top10" dxfId="16" priority="12" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="17" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="top10" dxfId="14" priority="9" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="15" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="9" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N11">
-    <cfRule type="top10" dxfId="10" priority="7" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="11" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="7" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O11">
-    <cfRule type="top10" dxfId="9" priority="5" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="8" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P11">
-    <cfRule type="top10" dxfId="4" priority="3" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="5" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q11">
-    <cfRule type="top10" dxfId="3" priority="1" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="2" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
